--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2185E0C4-7B01-4621-AFE4-E745603D72C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB5A4C5-D604-4F00-9FCD-6BD3D3B38BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9814322C-5080-4CF5-AB4E-69361AAAB5CB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{584A593A-30F0-4B8A-8A4C-E6478A1D93C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,223 +77,229 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>4,74%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -302,106 +308,100 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>8,9%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -410,19 +410,19 @@
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>7,08%</t>
@@ -431,88 +431,85 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>8,42%</t>
+    <t>8,46%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>12,41%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>67,13%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -521,109 +518,109 @@
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>48,85%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -632,37 +629,34 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -671,85 +665,85 @@
     <t>11,02%</t>
   </si>
   <si>
-    <t>18,19%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>36,96%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>39,1%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>8,36%</t>
@@ -758,40 +752,31 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -800,46 +785,46 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568C1157-AA42-4A35-98EC-09C5D59AFE8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B357-0BF4-42EF-9626-7A23E6491347}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1432,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1444,13 +1429,13 @@
         <v>13640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1459,19 +1444,19 @@
         <v>22822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -1480,13 +1465,13 @@
         <v>30329</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -1495,13 +1480,13 @@
         <v>32039</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -1510,19 +1495,19 @@
         <v>62368</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>151</v>
@@ -1531,13 +1516,13 @@
         <v>332311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1546,13 +1531,13 @@
         <v>298322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -1561,13 +1546,13 @@
         <v>630633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,13 +1567,13 @@
         <v>377679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1597,13 +1582,13 @@
         <v>354957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -1612,18 +1597,18 @@
         <v>732636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1635,13 +1620,13 @@
         <v>9060</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1650,13 +1635,13 @@
         <v>20451</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -1665,13 +1650,13 @@
         <v>29512</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1671,13 @@
         <v>16769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -1701,13 +1686,13 @@
         <v>22810</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -1716,19 +1701,19 @@
         <v>39578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>39</v>
@@ -1737,13 +1722,13 @@
         <v>45934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -1752,13 +1737,13 @@
         <v>82387</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -1767,19 +1752,19 @@
         <v>128321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>243</v>
@@ -1788,13 +1773,13 @@
         <v>356633</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>333</v>
@@ -1803,13 +1788,13 @@
         <v>372929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>576</v>
@@ -1818,13 +1803,13 @@
         <v>729562</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1824,13 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -1854,13 +1839,13 @@
         <v>498577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
@@ -1869,18 +1854,18 @@
         <v>926973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1892,13 +1877,13 @@
         <v>28397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -1907,13 +1892,13 @@
         <v>37397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1922,10 +1907,10 @@
         <v>65795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -1958,13 +1943,13 @@
         <v>49323</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -1973,10 +1958,10 @@
         <v>83696</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>103</v>
@@ -1985,7 +1970,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>94</v>
@@ -2036,7 +2021,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>397</v>
@@ -2096,13 +2081,13 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
@@ -2111,13 +2096,13 @@
         <v>583476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
@@ -2126,13 +2111,13 @@
         <v>1140727</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,16 +2218,16 @@
         <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>147</v>
@@ -2251,13 +2236,13 @@
         <v>139390</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>306</v>
@@ -2266,13 +2251,13 @@
         <v>186040</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>453</v>
@@ -2281,19 +2266,19 @@
         <v>325430</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>424</v>
@@ -2302,13 +2287,13 @@
         <v>486022</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>583</v>
@@ -2317,13 +2302,13 @@
         <v>396684</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1007</v>
@@ -2332,13 +2317,13 @@
         <v>882706</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2338,13 @@
         <v>723990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
@@ -2368,13 +2353,13 @@
         <v>746854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
@@ -2383,18 +2368,18 @@
         <v>1470844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2406,13 +2391,13 @@
         <v>61436</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>126</v>
@@ -2421,13 +2406,13 @@
         <v>81391</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -2436,13 +2421,13 @@
         <v>142827</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2442,13 @@
         <v>47830</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -2472,13 +2457,13 @@
         <v>109035</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>239</v>
@@ -2487,19 +2472,19 @@
         <v>156864</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>172</v>
@@ -2508,13 +2493,13 @@
         <v>145302</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
@@ -2523,13 +2508,13 @@
         <v>165121</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
@@ -2538,19 +2523,19 @@
         <v>310423</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>371</v>
@@ -2559,13 +2544,13 @@
         <v>344512</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>393</v>
@@ -2574,13 +2559,13 @@
         <v>238211</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>764</v>
@@ -2589,13 +2574,13 @@
         <v>582723</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2595,13 @@
         <v>599080</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
@@ -2625,13 +2610,13 @@
         <v>593758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -2640,18 +2625,18 @@
         <v>1192837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2663,13 +2648,13 @@
         <v>84783</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>267</v>
@@ -2678,13 +2663,13 @@
         <v>156744</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>391</v>
@@ -2693,13 +2678,13 @@
         <v>241527</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2699,13 @@
         <v>88316</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>300</v>
@@ -2729,13 +2714,13 @@
         <v>161085</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>433</v>
@@ -2744,34 +2729,34 @@
         <v>249401</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>273</v>
       </c>
       <c r="D31" s="7">
-        <v>179868</v>
+        <v>179869</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>540</v>
@@ -2780,13 +2765,13 @@
         <v>379428</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>813</v>
@@ -2795,34 +2780,34 @@
         <v>559297</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>498</v>
       </c>
       <c r="D32" s="7">
-        <v>344786</v>
+        <v>344787</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>601</v>
@@ -2831,13 +2816,13 @@
         <v>329380</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>1099</v>
@@ -2846,13 +2831,13 @@
         <v>674167</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,16 +2849,16 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>1708</v>
@@ -2882,13 +2867,13 @@
         <v>1026637</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>2736</v>
@@ -2897,13 +2882,13 @@
         <v>1724392</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2905,13 @@
         <v>228449</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>570</v>
@@ -2935,13 +2920,13 @@
         <v>372205</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>829</v>
@@ -2950,13 +2935,13 @@
         <v>600654</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2956,13 @@
         <v>256132</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>739</v>
@@ -2986,13 +2971,13 @@
         <v>454755</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>1032</v>
@@ -3001,19 +2986,19 @@
         <v>710887</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>739</v>
@@ -3022,13 +3007,13 @@
         <v>625856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1443</v>
@@ -3037,13 +3022,13 @@
         <v>972981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>2182</v>
@@ -3052,19 +3037,19 @@
         <v>1598837</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>2084</v>
@@ -3073,13 +3058,13 @@
         <v>2273714</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>2609</v>
@@ -3088,13 +3073,13 @@
         <v>2004317</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>4693</v>
@@ -3103,13 +3088,13 @@
         <v>4278031</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3109,13 @@
         <v>3384151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>5361</v>
@@ -3139,13 +3124,13 @@
         <v>3804258</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>8736</v>
@@ -3154,18 +3139,18 @@
         <v>7188409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB5A4C5-D604-4F00-9FCD-6BD3D3B38BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6257F0C-1FB9-49C8-8C9D-645F70FE6E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{584A593A-30F0-4B8A-8A4C-E6478A1D93C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B2A8DA-EAC5-45C3-A9FB-9C90218E2229}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F31B357-0BF4-42EF-9626-7A23E6491347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B87649-3790-4983-8546-699C7F614386}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6257F0C-1FB9-49C8-8C9D-645F70FE6E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1EEA5A-80B2-4FE3-A9AD-6B3B133758FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B2A8DA-EAC5-45C3-A9FB-9C90218E2229}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5663DA-852C-46A3-B815-FF1B22F0012F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="269">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,352 +77,352 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,12%</t>
+    <t>6,25%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>7,08%</t>
@@ -431,352 +431,367 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>8,46%</t>
+    <t>8,42%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>17,03%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -785,46 +800,46 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B87649-3790-4983-8546-699C7F614386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507D7F9-3EC1-4233-9B1E-3568FDD526A0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1417,10 +1432,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1429,13 +1444,13 @@
         <v>13640</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1444,19 +1459,19 @@
         <v>22822</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -1465,13 +1480,13 @@
         <v>30329</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -1480,13 +1495,13 @@
         <v>32039</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -1495,19 +1510,19 @@
         <v>62368</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>151</v>
@@ -1516,13 +1531,13 @@
         <v>332311</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -1531,13 +1546,13 @@
         <v>298322</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -1546,13 +1561,13 @@
         <v>630633</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,13 +1582,13 @@
         <v>377679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
@@ -1582,13 +1597,13 @@
         <v>354957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -1597,18 +1612,18 @@
         <v>732636</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1635,13 @@
         <v>9060</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
@@ -1635,13 +1650,13 @@
         <v>20451</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -1650,13 +1665,13 @@
         <v>29512</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1686,13 @@
         <v>16769</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -1686,13 +1701,13 @@
         <v>22810</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -1701,19 +1716,19 @@
         <v>39578</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>39</v>
@@ -1722,13 +1737,13 @@
         <v>45934</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -1737,13 +1752,13 @@
         <v>82387</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -1752,19 +1767,19 @@
         <v>128321</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>243</v>
@@ -1773,13 +1788,13 @@
         <v>356633</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>333</v>
@@ -1788,13 +1803,13 @@
         <v>372929</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>576</v>
@@ -1803,13 +1818,13 @@
         <v>729562</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1839,13 @@
         <v>428396</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
@@ -1839,13 +1854,13 @@
         <v>498577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
@@ -1854,18 +1869,18 @@
         <v>926973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1892,13 @@
         <v>28397</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -1892,13 +1907,13 @@
         <v>37397</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1907,10 +1922,10 @@
         <v>65795</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>95</v>
@@ -1943,13 +1958,13 @@
         <v>49323</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -1958,10 +1973,10 @@
         <v>83696</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>103</v>
@@ -1970,7 +1985,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>94</v>
@@ -2021,7 +2036,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>397</v>
@@ -2081,13 +2096,13 @@
         <v>557252</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
@@ -2096,13 +2111,13 @@
         <v>583476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
@@ -2111,13 +2126,13 @@
         <v>1140727</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,16 +2233,16 @@
         <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>147</v>
@@ -2236,13 +2251,13 @@
         <v>139390</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>306</v>
@@ -2251,13 +2266,13 @@
         <v>186040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>453</v>
@@ -2266,19 +2281,19 @@
         <v>325430</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>424</v>
@@ -2287,13 +2302,13 @@
         <v>486022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>583</v>
@@ -2302,13 +2317,13 @@
         <v>396684</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>1007</v>
@@ -2317,13 +2332,13 @@
         <v>882706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2353,13 @@
         <v>723990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
@@ -2353,13 +2368,13 @@
         <v>746854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
@@ -2368,18 +2383,18 @@
         <v>1470844</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2406,13 @@
         <v>61436</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>126</v>
@@ -2406,13 +2421,13 @@
         <v>81391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -2421,13 +2436,13 @@
         <v>142827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2457,13 @@
         <v>47830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>186</v>
@@ -2457,13 +2472,13 @@
         <v>109035</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>239</v>
@@ -2472,19 +2487,19 @@
         <v>156864</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>172</v>
@@ -2493,13 +2508,13 @@
         <v>145302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
@@ -2508,13 +2523,13 @@
         <v>165121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
@@ -2523,19 +2538,19 @@
         <v>310423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>371</v>
@@ -2544,13 +2559,13 @@
         <v>344512</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>393</v>
@@ -2559,13 +2574,13 @@
         <v>238211</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>764</v>
@@ -2574,13 +2589,13 @@
         <v>582723</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2610,13 @@
         <v>599080</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
@@ -2610,13 +2625,13 @@
         <v>593758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
@@ -2625,18 +2640,18 @@
         <v>1192837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2663,13 @@
         <v>84783</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>267</v>
@@ -2663,13 +2678,13 @@
         <v>156744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>391</v>
@@ -2678,13 +2693,13 @@
         <v>241527</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2714,13 @@
         <v>88316</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>300</v>
@@ -2714,13 +2729,13 @@
         <v>161085</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>433</v>
@@ -2729,34 +2744,34 @@
         <v>249401</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>273</v>
       </c>
       <c r="D31" s="7">
-        <v>179869</v>
+        <v>179868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>540</v>
@@ -2765,13 +2780,13 @@
         <v>379428</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>813</v>
@@ -2780,34 +2795,34 @@
         <v>559297</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>498</v>
       </c>
       <c r="D32" s="7">
-        <v>344787</v>
+        <v>344786</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>601</v>
@@ -2816,13 +2831,13 @@
         <v>329380</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>1099</v>
@@ -2831,13 +2846,13 @@
         <v>674167</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,16 +2864,16 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>1708</v>
@@ -2867,13 +2882,13 @@
         <v>1026637</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>2736</v>
@@ -2882,13 +2897,13 @@
         <v>1724392</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2920,13 @@
         <v>228449</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>570</v>
@@ -2920,13 +2935,13 @@
         <v>372205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>829</v>
@@ -2935,13 +2950,13 @@
         <v>600654</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2971,13 @@
         <v>256132</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>739</v>
@@ -2971,13 +2986,13 @@
         <v>454755</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>1032</v>
@@ -2986,19 +3001,19 @@
         <v>710887</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>739</v>
@@ -3007,13 +3022,13 @@
         <v>625856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>1443</v>
@@ -3022,13 +3037,13 @@
         <v>972981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>2182</v>
@@ -3037,19 +3052,19 @@
         <v>1598837</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>2084</v>
@@ -3058,13 +3073,13 @@
         <v>2273714</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>2609</v>
@@ -3073,13 +3088,13 @@
         <v>2004317</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>4693</v>
@@ -3088,13 +3103,13 @@
         <v>4278031</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3124,13 @@
         <v>3384151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>5361</v>
@@ -3124,13 +3139,13 @@
         <v>3804258</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>8736</v>
@@ -3139,18 +3154,18 @@
         <v>7188409</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1EEA5A-80B2-4FE3-A9AD-6B3B133758FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7767F47-F957-40AA-A3D2-E13C0468F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5663DA-852C-46A3-B815-FF1B22F0012F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{186255D7-E536-4F08-BB48-BBC625A361CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="303">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -77,769 +77,871 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507D7F9-3EC1-4233-9B1E-3568FDD526A0}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A0761C-455B-45A7-A3B5-3FC7BAD3AAC2}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1375,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5857</v>
+        <v>6200</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1390,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>10956</v>
+        <v>9762</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1405,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>16812</v>
+        <v>15962</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1426,148 +1528,148 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>9182</v>
+        <v>8772</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>13640</v>
+        <v>11956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>22822</v>
+        <v>20727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>30329</v>
+        <v>31028</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>32039</v>
+        <v>29081</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
       </c>
       <c r="N6" s="7">
-        <v>62368</v>
+        <v>60109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>332311</v>
+        <v>353987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
       </c>
       <c r="I7" s="7">
-        <v>298322</v>
+        <v>262401</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
       </c>
       <c r="N7" s="7">
-        <v>630633</v>
+        <v>616389</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,51 +1681,51 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1632,46 +1734,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>9060</v>
+        <v>8409</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>20451</v>
+        <v>18034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
       </c>
       <c r="N9" s="7">
-        <v>29512</v>
+        <v>26443</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,64 +1785,64 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>16769</v>
+        <v>18142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>22810</v>
+        <v>21161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>39578</v>
+        <v>39303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>45934</v>
+        <v>44269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>70</v>
@@ -1749,7 +1851,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>82387</v>
+        <v>74462</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1764,7 +1866,7 @@
         <v>128</v>
       </c>
       <c r="N11" s="7">
-        <v>128321</v>
+        <v>118731</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1779,13 +1881,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>356633</v>
+        <v>352727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1800,7 +1902,7 @@
         <v>333</v>
       </c>
       <c r="I12" s="7">
-        <v>372929</v>
+        <v>397846</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1815,7 +1917,7 @@
         <v>576</v>
       </c>
       <c r="N12" s="7">
-        <v>729562</v>
+        <v>750574</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -1836,46 +1938,46 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,7 +1991,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>28397</v>
+        <v>26280</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1904,7 +2006,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>37397</v>
+        <v>34274</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1919,7 +2021,7 @@
         <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>65795</v>
+        <v>60555</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1940,7 +2042,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>34373</v>
+        <v>33640</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>96</v>
@@ -1955,7 +2057,7 @@
         <v>71</v>
       </c>
       <c r="I15" s="7">
-        <v>49323</v>
+        <v>45621</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>99</v>
@@ -1970,118 +2072,118 @@
         <v>102</v>
       </c>
       <c r="N15" s="7">
-        <v>83696</v>
+        <v>79261</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>85032</v>
+        <v>81432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
       </c>
       <c r="I16" s="7">
-        <v>127966</v>
+        <v>118623</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>289</v>
       </c>
       <c r="N16" s="7">
-        <v>212998</v>
+        <v>200055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>397</v>
       </c>
       <c r="D17" s="7">
-        <v>409450</v>
+        <v>394985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>525</v>
       </c>
       <c r="I17" s="7">
-        <v>368790</v>
+        <v>343950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>922</v>
       </c>
       <c r="N17" s="7">
-        <v>778239</v>
+        <v>738935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,51 +2195,51 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
       </c>
       <c r="N18" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2146,46 +2248,46 @@
         <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>38915</v>
+        <v>36167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>98</v>
       </c>
       <c r="I19" s="7">
-        <v>65266</v>
+        <v>59537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
       </c>
       <c r="N19" s="7">
-        <v>104182</v>
+        <v>95704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,148 +2299,148 @@
         <v>58</v>
       </c>
       <c r="D20" s="7">
-        <v>59663</v>
+        <v>57566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
       </c>
       <c r="I20" s="7">
-        <v>98864</v>
+        <v>91670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>211</v>
       </c>
       <c r="N20" s="7">
-        <v>158527</v>
+        <v>149237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>147</v>
       </c>
       <c r="D21" s="7">
-        <v>139390</v>
+        <v>130658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>306</v>
       </c>
       <c r="I21" s="7">
-        <v>186040</v>
+        <v>171308</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>453</v>
       </c>
       <c r="N21" s="7">
-        <v>325430</v>
+        <v>301967</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>424</v>
       </c>
       <c r="D22" s="7">
-        <v>486022</v>
+        <v>663395</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>583</v>
       </c>
       <c r="I22" s="7">
-        <v>396684</v>
+        <v>389982</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>1007</v>
       </c>
       <c r="N22" s="7">
-        <v>882706</v>
+        <v>1053378</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,51 +2452,51 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2403,46 +2505,46 @@
         <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>61436</v>
+        <v>55145</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>126</v>
       </c>
       <c r="I24" s="7">
-        <v>81391</v>
+        <v>72962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
       </c>
       <c r="N24" s="7">
-        <v>142827</v>
+        <v>128107</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,10 +2556,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="7">
-        <v>47830</v>
+        <v>45590</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>170</v>
@@ -2469,7 +2571,7 @@
         <v>186</v>
       </c>
       <c r="I25" s="7">
-        <v>109035</v>
+        <v>100304</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>172</v>
@@ -2484,7 +2586,7 @@
         <v>239</v>
       </c>
       <c r="N25" s="7">
-        <v>156864</v>
+        <v>145893</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>175</v>
@@ -2499,103 +2601,103 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>172</v>
       </c>
       <c r="D26" s="7">
-        <v>145302</v>
+        <v>135030</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>295</v>
       </c>
       <c r="I26" s="7">
-        <v>165121</v>
+        <v>151657</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>467</v>
       </c>
       <c r="N26" s="7">
-        <v>310423</v>
+        <v>286687</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>344512</v>
+        <v>324439</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>393</v>
       </c>
       <c r="I27" s="7">
-        <v>238211</v>
+        <v>220140</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>764</v>
       </c>
       <c r="N27" s="7">
-        <v>582723</v>
+        <v>544579</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,99 +2709,99 @@
         <v>662</v>
       </c>
       <c r="D28" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1000</v>
       </c>
       <c r="I28" s="7">
-        <v>593758</v>
+        <v>545063</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
       </c>
       <c r="N28" s="7">
-        <v>1192837</v>
+        <v>1105267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7">
-        <v>84783</v>
+        <v>35471</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>118</v>
+      </c>
+      <c r="I29" s="7">
+        <v>61128</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="7">
-        <v>267</v>
-      </c>
-      <c r="I29" s="7">
-        <v>156744</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>176</v>
+      </c>
+      <c r="N29" s="7">
+        <v>96599</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M29" s="7">
-        <v>391</v>
-      </c>
-      <c r="N29" s="7">
-        <v>241527</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,151 +2810,151 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7">
-        <v>88316</v>
+        <v>40634</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>134</v>
+      </c>
+      <c r="I30" s="7">
+        <v>65833</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="7">
-        <v>300</v>
-      </c>
-      <c r="I30" s="7">
-        <v>161085</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>196</v>
+      </c>
+      <c r="N30" s="7">
+        <v>106467</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="M30" s="7">
-        <v>433</v>
-      </c>
-      <c r="N30" s="7">
-        <v>249401</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="D31" s="7">
-        <v>179868</v>
+        <v>91350</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>245</v>
+      </c>
+      <c r="I31" s="7">
+        <v>315806</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H31" s="7">
-        <v>540</v>
-      </c>
-      <c r="I31" s="7">
-        <v>379428</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>391</v>
+      </c>
+      <c r="N31" s="7">
+        <v>407156</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M31" s="7">
-        <v>813</v>
-      </c>
-      <c r="N31" s="7">
-        <v>559297</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>498</v>
+        <v>304</v>
       </c>
       <c r="D32" s="7">
-        <v>344786</v>
+        <v>200710</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>330</v>
+      </c>
+      <c r="I32" s="7">
+        <v>165600</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="7">
-        <v>601</v>
-      </c>
-      <c r="I32" s="7">
-        <v>329380</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>634</v>
+      </c>
+      <c r="N32" s="7">
+        <v>366310</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M32" s="7">
-        <v>1099</v>
-      </c>
-      <c r="N32" s="7">
-        <v>674167</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,102 +2963,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="D34" s="7">
-        <v>228449</v>
+        <v>40317</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>149</v>
+      </c>
+      <c r="I34" s="7">
+        <v>75517</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="7">
-        <v>570</v>
-      </c>
-      <c r="I34" s="7">
-        <v>372205</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>215</v>
+      </c>
+      <c r="N34" s="7">
+        <v>115834</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="7">
-        <v>829</v>
-      </c>
-      <c r="N34" s="7">
-        <v>600654</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,151 +3067,151 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="D35" s="7">
-        <v>256132</v>
+        <v>41462</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>166</v>
+      </c>
+      <c r="I35" s="7">
+        <v>80165</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="7">
-        <v>739</v>
-      </c>
-      <c r="I35" s="7">
-        <v>454755</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>237</v>
+      </c>
+      <c r="N35" s="7">
+        <v>121627</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="M35" s="7">
-        <v>1032</v>
-      </c>
-      <c r="N35" s="7">
-        <v>710887</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>739</v>
+        <v>127</v>
       </c>
       <c r="D36" s="7">
-        <v>625856</v>
+        <v>75299</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>295</v>
+      </c>
+      <c r="I36" s="7">
+        <v>133023</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H36" s="7">
-        <v>1443</v>
-      </c>
-      <c r="I36" s="7">
-        <v>972981</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>422</v>
+      </c>
+      <c r="N36" s="7">
+        <v>208322</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M36" s="7">
-        <v>2182</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1598837</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2084</v>
+        <v>194</v>
       </c>
       <c r="D37" s="7">
-        <v>2273714</v>
+        <v>125680</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>271</v>
+      </c>
+      <c r="I37" s="7">
+        <v>137126</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="7">
-        <v>2609</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2004317</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>465</v>
+      </c>
+      <c r="N37" s="7">
+        <v>262806</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M37" s="7">
-        <v>4693</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4278031</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,63 +3220,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>259</v>
+      </c>
+      <c r="D39" s="7">
+        <v>207989</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>570</v>
+      </c>
+      <c r="I39" s="7">
+        <v>331214</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>829</v>
+      </c>
+      <c r="N39" s="7">
+        <v>539203</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>293</v>
+      </c>
+      <c r="D40" s="7">
+        <v>245807</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="7">
+        <v>739</v>
+      </c>
+      <c r="I40" s="7">
+        <v>416710</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1032</v>
+      </c>
+      <c r="N40" s="7">
+        <v>662517</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>739</v>
+      </c>
+      <c r="D41" s="7">
+        <v>589067</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1443</v>
+      </c>
+      <c r="I41" s="7">
+        <v>993961</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2182</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1583027</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2084</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2415925</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2609</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1917047</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4693</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4332971</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3375</v>
       </c>
-      <c r="D38" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3458787</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5361</v>
       </c>
-      <c r="I38" s="7">
-        <v>3804258</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3658932</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8736</v>
       </c>
-      <c r="N38" s="7">
-        <v>7188409</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>268</v>
+      <c r="N43" s="7">
+        <v>7117719</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
+          <t>Población según la frecuencia con la que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
